--- a/output/1Y_P37_KFSDIV.xlsx
+++ b/output/1Y_P37_KFSDIV.xlsx
@@ -727,16 +727,16 @@
         <v>14.6268</v>
       </c>
       <c r="C2" s="1">
-        <v>14.6268</v>
+        <v>14.5976</v>
       </c>
       <c r="D2" s="1">
-        <v>14.6268</v>
+        <v>14.6561</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>683.6765</v>
+        <v>682.3098</v>
       </c>
       <c r="H2" s="1">
         <v>0</v>
@@ -771,31 +771,31 @@
         <v>15.3636</v>
       </c>
       <c r="C3" s="1">
-        <v>15.3636</v>
+        <v>15.3329</v>
       </c>
       <c r="D3" s="1">
-        <v>15.3636</v>
+        <v>15.3944</v>
       </c>
       <c r="E3" s="1">
-        <v>683.6765</v>
+        <v>682.3098</v>
       </c>
       <c r="F3" s="1">
-        <v>650.8891</v>
+        <v>649.5869</v>
       </c>
       <c r="H3" s="1">
-        <v>10503.7329</v>
+        <v>10461.7872</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>10503.7329</v>
+        <v>10461.7872</v>
       </c>
       <c r="K3" s="1">
         <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>14.6268</v>
+        <v>14.6561</v>
       </c>
       <c r="M3" s="1">
         <v>0</v>
@@ -810,7 +810,7 @@
         <v>-10000</v>
       </c>
       <c r="Q3" s="3">
-        <v>0.0504</v>
+        <v>0.0462</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -821,46 +821,46 @@
         <v>13.8711</v>
       </c>
       <c r="C4" s="1">
-        <v>13.8711</v>
+        <v>13.8434</v>
       </c>
       <c r="D4" s="1">
-        <v>13.8711</v>
+        <v>13.8989</v>
       </c>
       <c r="E4" s="1">
-        <v>1334.5657</v>
+        <v>1331.8966</v>
       </c>
       <c r="F4" s="1">
-        <v>720.9234</v>
+        <v>719.4814</v>
       </c>
       <c r="H4" s="1">
-        <v>18511.8936</v>
+        <v>18437.9776</v>
       </c>
       <c r="I4" s="1">
         <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>18511.8936</v>
+        <v>18437.9776</v>
       </c>
       <c r="K4" s="1">
         <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>14.9861</v>
+        <v>15.0162</v>
       </c>
       <c r="M4" s="1">
         <v>0.5</v>
       </c>
       <c r="N4" s="1">
-        <v>307.6544</v>
+        <v>307.0394</v>
       </c>
       <c r="O4" s="1">
         <v>10000</v>
       </c>
       <c r="P4" s="1">
-        <v>-9692.345600000001</v>
+        <v>-9692.9606</v>
       </c>
       <c r="Q4" s="3">
-        <v>-0.09710000000000001</v>
+        <v>-0.0989</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -871,31 +871,31 @@
         <v>14.1252</v>
       </c>
       <c r="C5" s="1">
-        <v>14.1252</v>
+        <v>14.097</v>
       </c>
       <c r="D5" s="1">
-        <v>14.1252</v>
+        <v>14.1535</v>
       </c>
       <c r="E5" s="1">
-        <v>2055.489</v>
+        <v>2051.378</v>
       </c>
       <c r="F5" s="1">
-        <v>710.3746</v>
+        <v>708.9494</v>
       </c>
       <c r="H5" s="1">
-        <v>29034.1934</v>
+        <v>28918.2759</v>
       </c>
       <c r="I5" s="1">
-        <v>307.6544</v>
+        <v>307.0394</v>
       </c>
       <c r="J5" s="1">
-        <v>29341.8478</v>
+        <v>29225.3153</v>
       </c>
       <c r="K5" s="1">
         <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>14.5951</v>
+        <v>14.6243</v>
       </c>
       <c r="M5" s="1">
         <v>0</v>
@@ -907,10 +907,10 @@
         <v>10000</v>
       </c>
       <c r="P5" s="1">
-        <v>-10034.1838</v>
+        <v>-10034.1155</v>
       </c>
       <c r="Q5" s="3">
-        <v>0.0291</v>
+        <v>0.0277</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -921,31 +921,31 @@
         <v>14.1934</v>
       </c>
       <c r="C6" s="1">
-        <v>14.1934</v>
+        <v>14.165</v>
       </c>
       <c r="D6" s="1">
-        <v>14.1934</v>
+        <v>14.2218</v>
       </c>
       <c r="E6" s="1">
-        <v>2765.8636</v>
+        <v>2760.3274</v>
       </c>
       <c r="F6" s="1">
-        <v>706.9613000000001</v>
+        <v>705.5447</v>
       </c>
       <c r="H6" s="1">
-        <v>39257.0091</v>
+        <v>39100.038</v>
       </c>
       <c r="I6" s="1">
-        <v>273.4706</v>
+        <v>272.9239</v>
       </c>
       <c r="J6" s="1">
-        <v>39530.4797</v>
+        <v>39372.9619</v>
       </c>
       <c r="K6" s="1">
-        <v>40034.1838</v>
+        <v>40034.1155</v>
       </c>
       <c r="L6" s="1">
-        <v>14.4744</v>
+        <v>14.5034</v>
       </c>
       <c r="M6" s="1">
         <v>0</v>
@@ -957,10 +957,10 @@
         <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>-10034.1838</v>
+        <v>-10034.1155</v>
       </c>
       <c r="Q6" s="3">
-        <v>0.0048</v>
+        <v>0.0038</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -971,46 +971,46 @@
         <v>14.1176</v>
       </c>
       <c r="C7" s="1">
-        <v>14.1176</v>
+        <v>14.0894</v>
       </c>
       <c r="D7" s="1">
-        <v>14.1176</v>
+        <v>14.1459</v>
       </c>
       <c r="E7" s="1">
-        <v>3472.8249</v>
+        <v>3465.8721</v>
       </c>
       <c r="F7" s="1">
-        <v>710.7571</v>
+        <v>709.3303</v>
       </c>
       <c r="H7" s="1">
-        <v>49027.9528</v>
+        <v>48832.0586</v>
       </c>
       <c r="I7" s="1">
-        <v>239.2868</v>
+        <v>238.8084</v>
       </c>
       <c r="J7" s="1">
-        <v>49267.2396</v>
+        <v>49070.867</v>
       </c>
       <c r="K7" s="1">
-        <v>50068.3677</v>
+        <v>50068.231</v>
       </c>
       <c r="L7" s="1">
-        <v>14.4172</v>
+        <v>14.4461</v>
       </c>
       <c r="M7" s="1">
         <v>0.5</v>
       </c>
       <c r="N7" s="1">
-        <v>1244.6386</v>
+        <v>1242.1473</v>
       </c>
       <c r="O7" s="1">
         <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>-8789.5452</v>
+        <v>-8791.9681</v>
       </c>
       <c r="Q7" s="3">
-        <v>-0.0053</v>
+        <v>-0.0061</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1021,31 +1021,31 @@
         <v>15.3311</v>
       </c>
       <c r="C8" s="1">
-        <v>15.3311</v>
+        <v>15.3004</v>
       </c>
       <c r="D8" s="1">
-        <v>15.3311</v>
+        <v>15.3618</v>
       </c>
       <c r="E8" s="1">
-        <v>4183.582</v>
+        <v>4175.2024</v>
       </c>
       <c r="F8" s="1">
-        <v>668.0293</v>
+        <v>666.6627999999999</v>
       </c>
       <c r="H8" s="1">
-        <v>64138.9134</v>
+        <v>63882.2671</v>
       </c>
       <c r="I8" s="1">
-        <v>1449.7416</v>
+        <v>1446.8403</v>
       </c>
       <c r="J8" s="1">
-        <v>65588.655</v>
+        <v>65329.1073</v>
       </c>
       <c r="K8" s="1">
-        <v>60102.5515</v>
+        <v>60102.3465</v>
       </c>
       <c r="L8" s="1">
-        <v>14.3663</v>
+        <v>14.3951</v>
       </c>
       <c r="M8" s="1">
         <v>0</v>
@@ -1057,10 +1057,10 @@
         <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>-10241.6236</v>
+        <v>-10241.14</v>
       </c>
       <c r="Q8" s="3">
-        <v>0.1067</v>
+        <v>0.1059</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1071,31 +1071,31 @@
         <v>15.3637</v>
       </c>
       <c r="C9" s="1">
-        <v>15.3637</v>
+        <v>15.333</v>
       </c>
       <c r="D9" s="1">
-        <v>15.3637</v>
+        <v>15.3945</v>
       </c>
       <c r="E9" s="1">
-        <v>4851.6112</v>
+        <v>4841.8652</v>
       </c>
       <c r="F9" s="1">
-        <v>666.6118</v>
+        <v>665.2467</v>
       </c>
       <c r="H9" s="1">
-        <v>74538.6995</v>
+        <v>74240.31879999999</v>
       </c>
       <c r="I9" s="1">
-        <v>1208.118</v>
+        <v>1205.7002</v>
       </c>
       <c r="J9" s="1">
-        <v>75746.8175</v>
+        <v>75446.019</v>
       </c>
       <c r="K9" s="1">
-        <v>70344.17509999999</v>
+        <v>70343.4865</v>
       </c>
       <c r="L9" s="1">
-        <v>14.4991</v>
+        <v>14.5282</v>
       </c>
       <c r="M9" s="1">
         <v>0</v>
@@ -1107,10 +1107,10 @@
         <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>-10241.6236</v>
+        <v>-10241.14</v>
       </c>
       <c r="Q9" s="3">
-        <v>0.0021</v>
+        <v>0.0016</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1121,46 +1121,46 @@
         <v>14.6447</v>
       </c>
       <c r="C10" s="1">
-        <v>14.6447</v>
+        <v>14.6154</v>
       </c>
       <c r="D10" s="1">
-        <v>14.6447</v>
+        <v>14.674</v>
       </c>
       <c r="E10" s="1">
-        <v>5518.223</v>
+        <v>5507.1119</v>
       </c>
       <c r="F10" s="1">
-        <v>699.3398999999999</v>
+        <v>697.9106</v>
       </c>
       <c r="H10" s="1">
-        <v>80812.72070000001</v>
+        <v>80488.6427</v>
       </c>
       <c r="I10" s="1">
-        <v>966.4944</v>
+        <v>964.5602</v>
       </c>
       <c r="J10" s="1">
-        <v>81779.2151</v>
+        <v>81453.2029</v>
       </c>
       <c r="K10" s="1">
-        <v>80585.7987</v>
+        <v>80584.6266</v>
       </c>
       <c r="L10" s="1">
-        <v>14.6036</v>
+        <v>14.6328</v>
       </c>
       <c r="M10" s="1">
         <v>1</v>
       </c>
       <c r="N10" s="1">
-        <v>4366.4501</v>
+        <v>4357.6787</v>
       </c>
       <c r="O10" s="1">
         <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>-5875.1735</v>
+        <v>-5883.4614</v>
       </c>
       <c r="Q10" s="3">
-        <v>-0.0463</v>
+        <v>-0.0467</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1171,31 +1171,31 @@
         <v>15.486</v>
       </c>
       <c r="C11" s="1">
-        <v>15.486</v>
+        <v>15.455</v>
       </c>
       <c r="D11" s="1">
-        <v>15.486</v>
+        <v>15.517</v>
       </c>
       <c r="E11" s="1">
-        <v>6217.563</v>
+        <v>6205.0225</v>
       </c>
       <c r="F11" s="1">
-        <v>755.3343</v>
+        <v>753.6057</v>
       </c>
       <c r="H11" s="1">
-        <v>96285.17999999999</v>
+        <v>95898.62209999999</v>
       </c>
       <c r="I11" s="1">
-        <v>5091.3209</v>
+        <v>5081.0988</v>
       </c>
       <c r="J11" s="1">
-        <v>101376.501</v>
+        <v>100979.7209</v>
       </c>
       <c r="K11" s="1">
-        <v>90827.42230000001</v>
+        <v>90825.7666</v>
       </c>
       <c r="L11" s="1">
-        <v>14.6082</v>
+        <v>14.6375</v>
       </c>
       <c r="M11" s="1">
         <v>0</v>
@@ -1207,10 +1207,10 @@
         <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>-11697.107</v>
+        <v>-11693.6996</v>
       </c>
       <c r="Q11" s="3">
-        <v>0.1046</v>
+        <v>0.1042</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1221,31 +1221,31 @@
         <v>16.1958</v>
       </c>
       <c r="C12" s="1">
-        <v>16.1957</v>
+        <v>16.1634</v>
       </c>
       <c r="D12" s="1">
-        <v>16.1958</v>
+        <v>16.2282</v>
       </c>
       <c r="E12" s="1">
-        <v>6972.8973</v>
+        <v>6958.6282</v>
       </c>
       <c r="F12" s="1">
-        <v>722.2309</v>
+        <v>720.579</v>
       </c>
       <c r="H12" s="1">
-        <v>112930.9522</v>
+        <v>112475.0903</v>
       </c>
       <c r="I12" s="1">
-        <v>3394.2139</v>
+        <v>3387.3992</v>
       </c>
       <c r="J12" s="1">
-        <v>116325.1661</v>
+        <v>115862.4895</v>
       </c>
       <c r="K12" s="1">
-        <v>102524.5293</v>
+        <v>102519.4662</v>
       </c>
       <c r="L12" s="1">
-        <v>14.7033</v>
+        <v>14.7327</v>
       </c>
       <c r="M12" s="1">
         <v>0</v>
@@ -1257,10 +1257,10 @@
         <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>-11697.107</v>
+        <v>-11693.6996</v>
       </c>
       <c r="Q12" s="3">
-        <v>0.0444</v>
+        <v>0.044</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1271,46 +1271,46 @@
         <v>16.4264</v>
       </c>
       <c r="C13" s="1">
-        <v>16.4264</v>
+        <v>16.3936</v>
       </c>
       <c r="D13" s="1">
-        <v>16.4264</v>
+        <v>16.4593</v>
       </c>
       <c r="E13" s="1">
-        <v>7695.1281</v>
+        <v>7679.2071</v>
       </c>
       <c r="F13" s="1">
-        <v>712.0919</v>
+        <v>710.4615</v>
       </c>
       <c r="H13" s="1">
-        <v>126403.253</v>
+        <v>125889.8499</v>
       </c>
       <c r="I13" s="1">
-        <v>1697.107</v>
+        <v>1693.6996</v>
       </c>
       <c r="J13" s="1">
-        <v>128100.36</v>
+        <v>127583.5495</v>
       </c>
       <c r="K13" s="1">
-        <v>114221.6362</v>
+        <v>114213.1658</v>
       </c>
       <c r="L13" s="1">
-        <v>14.8434</v>
+        <v>14.873</v>
       </c>
       <c r="M13" s="1">
         <v>0.75</v>
       </c>
       <c r="N13" s="1">
-        <v>4706.7057</v>
+        <v>4697.074</v>
       </c>
       <c r="O13" s="1">
         <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>-6990.4013</v>
+        <v>-6996.6256</v>
       </c>
       <c r="Q13" s="3">
-        <v>0.0141</v>
+        <v>0.0137</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1321,31 +1321,31 @@
         <v>17.107</v>
       </c>
       <c r="C14" s="1">
-        <v>17.107</v>
+        <v>17.0728</v>
       </c>
       <c r="D14" s="1">
-        <v>17.107</v>
+        <v>17.1413</v>
       </c>
       <c r="E14" s="1">
-        <v>8407.2201</v>
+        <v>8389.6687</v>
       </c>
       <c r="F14" s="1">
-        <v>-8407.2201</v>
+        <v>-8389.6687</v>
       </c>
       <c r="H14" s="1">
-        <v>143822.314</v>
+        <v>143235.1351</v>
       </c>
       <c r="I14" s="1">
-        <v>4706.7057</v>
+        <v>4697.074</v>
       </c>
       <c r="J14" s="1">
-        <v>148529.0196</v>
+        <v>147932.2091</v>
       </c>
       <c r="K14" s="1">
-        <v>125918.7432</v>
+        <v>125906.8654</v>
       </c>
       <c r="L14" s="1">
-        <v>14.9775</v>
+        <v>15.0074</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
@@ -1357,10 +1357,10 @@
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>143822.314</v>
+        <v>143235.1351</v>
       </c>
       <c r="Q14" s="3">
-        <v>0.0755</v>
+        <v>0.0752</v>
       </c>
     </row>
   </sheetData>
@@ -1456,16 +1456,16 @@
         <v>14.6268</v>
       </c>
       <c r="C2" s="1">
-        <v>14.6268</v>
+        <v>14.5976</v>
       </c>
       <c r="D2" s="1">
-        <v>14.6268</v>
+        <v>14.6561</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>683.6765</v>
+        <v>682.3098</v>
       </c>
       <c r="G2" s="1">
         <v>10000</v>
@@ -1503,34 +1503,34 @@
         <v>15.3636</v>
       </c>
       <c r="C3" s="1">
-        <v>15.3636</v>
+        <v>15.3329</v>
       </c>
       <c r="D3" s="1">
-        <v>15.3636</v>
+        <v>15.3944</v>
       </c>
       <c r="E3" s="1">
-        <v>683.6765</v>
+        <v>682.3098</v>
       </c>
       <c r="F3" s="1">
-        <v>618.1017000000001</v>
+        <v>622.0749</v>
       </c>
       <c r="G3" s="1">
         <v>20000</v>
       </c>
       <c r="H3" s="1">
-        <v>10503.7329</v>
+        <v>10461.7872</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>10503.7329</v>
+        <v>10461.7872</v>
       </c>
       <c r="K3" s="1">
         <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>14.6268</v>
+        <v>14.6561</v>
       </c>
       <c r="M3" s="1">
         <v>0</v>
@@ -1542,10 +1542,10 @@
         <v>10000</v>
       </c>
       <c r="P3" s="1">
-        <v>-9496.267099999999</v>
+        <v>-9576.4704</v>
       </c>
       <c r="Q3" s="3">
-        <v>0.0504</v>
+        <v>0.0462</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -1556,49 +1556,49 @@
         <v>13.8711</v>
       </c>
       <c r="C4" s="1">
-        <v>13.8711</v>
+        <v>13.8434</v>
       </c>
       <c r="D4" s="1">
-        <v>13.8711</v>
+        <v>13.8989</v>
       </c>
       <c r="E4" s="1">
-        <v>1301.7782</v>
+        <v>1304.3847</v>
       </c>
       <c r="F4" s="1">
-        <v>757.2386</v>
+        <v>749.9536000000001</v>
       </c>
       <c r="G4" s="1">
         <v>30000</v>
       </c>
       <c r="H4" s="1">
-        <v>18057.096</v>
+        <v>18057.119</v>
       </c>
       <c r="I4" s="1">
-        <v>503.7329</v>
+        <v>423.5296</v>
       </c>
       <c r="J4" s="1">
-        <v>18560.8289</v>
+        <v>18480.6486</v>
       </c>
       <c r="K4" s="1">
-        <v>19496.2671</v>
+        <v>19576.4704</v>
       </c>
       <c r="L4" s="1">
-        <v>14.9766</v>
+        <v>15.0082</v>
       </c>
       <c r="M4" s="1">
         <v>0.5</v>
       </c>
       <c r="N4" s="1">
-        <v>307.6544</v>
+        <v>307.0394</v>
       </c>
       <c r="O4" s="1">
         <v>10000</v>
       </c>
       <c r="P4" s="1">
-        <v>-10196.0784</v>
+        <v>-10116.4902</v>
       </c>
       <c r="Q4" s="3">
-        <v>-0.0948</v>
+        <v>-0.0968</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -1609,34 +1609,34 @@
         <v>14.1252</v>
       </c>
       <c r="C5" s="1">
-        <v>14.1252</v>
+        <v>14.097</v>
       </c>
       <c r="D5" s="1">
-        <v>14.1252</v>
+        <v>14.1535</v>
       </c>
       <c r="E5" s="1">
-        <v>2059.0169</v>
+        <v>2054.3383</v>
       </c>
       <c r="F5" s="1">
-        <v>729.7351</v>
+        <v>728.2325</v>
       </c>
       <c r="G5" s="1">
         <v>40000</v>
       </c>
       <c r="H5" s="1">
-        <v>29084.0251</v>
+        <v>28960.0064</v>
       </c>
       <c r="I5" s="1">
-        <v>307.6544</v>
+        <v>307.0394</v>
       </c>
       <c r="J5" s="1">
-        <v>29391.6795</v>
+        <v>29267.0458</v>
       </c>
       <c r="K5" s="1">
         <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>14.5701</v>
+        <v>14.6032</v>
       </c>
       <c r="M5" s="1">
         <v>0</v>
@@ -1648,10 +1648,10 @@
         <v>10000</v>
       </c>
       <c r="P5" s="1">
-        <v>-10307.6544</v>
+        <v>-10307.0394</v>
       </c>
       <c r="Q5" s="3">
-        <v>0.0291</v>
+        <v>0.0276</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -1662,34 +1662,34 @@
         <v>14.1934</v>
       </c>
       <c r="C6" s="1">
-        <v>14.1934</v>
+        <v>14.165</v>
       </c>
       <c r="D6" s="1">
-        <v>14.1934</v>
+        <v>14.2218</v>
       </c>
       <c r="E6" s="1">
-        <v>2788.752</v>
+        <v>2782.5708</v>
       </c>
       <c r="F6" s="1">
-        <v>704.5528</v>
+        <v>703.1459</v>
       </c>
       <c r="G6" s="1">
         <v>50000</v>
       </c>
       <c r="H6" s="1">
-        <v>39581.8724</v>
+        <v>39415.1155</v>
       </c>
       <c r="I6" s="1">
         <v>0</v>
       </c>
       <c r="J6" s="1">
-        <v>39581.8724</v>
+        <v>39415.1155</v>
       </c>
       <c r="K6" s="1">
-        <v>40307.6544</v>
+        <v>40307.0394</v>
       </c>
       <c r="L6" s="1">
-        <v>14.4537</v>
+        <v>14.4855</v>
       </c>
       <c r="M6" s="1">
         <v>0</v>
@@ -1704,7 +1704,7 @@
         <v>-10000</v>
       </c>
       <c r="Q6" s="3">
-        <v>0.0048</v>
+        <v>0.0038</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -1715,49 +1715,49 @@
         <v>14.1176</v>
       </c>
       <c r="C7" s="1">
-        <v>14.1176</v>
+        <v>14.0894</v>
       </c>
       <c r="D7" s="1">
-        <v>14.1176</v>
+        <v>14.1459</v>
       </c>
       <c r="E7" s="1">
-        <v>3493.3048</v>
+        <v>3485.7167</v>
       </c>
       <c r="F7" s="1">
-        <v>708.3357</v>
+        <v>706.9186</v>
       </c>
       <c r="G7" s="1">
         <v>60000</v>
       </c>
       <c r="H7" s="1">
-        <v>49317.0799</v>
+        <v>49111.6566</v>
       </c>
       <c r="I7" s="1">
         <v>0</v>
       </c>
       <c r="J7" s="1">
-        <v>49317.0799</v>
+        <v>49111.6566</v>
       </c>
       <c r="K7" s="1">
-        <v>50307.6544</v>
+        <v>50307.0394</v>
       </c>
       <c r="L7" s="1">
-        <v>14.4012</v>
+        <v>14.4323</v>
       </c>
       <c r="M7" s="1">
         <v>0.5</v>
       </c>
       <c r="N7" s="1">
-        <v>1254.9384</v>
+        <v>1252.1569</v>
       </c>
       <c r="O7" s="1">
         <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>-8745.061600000001</v>
+        <v>-8747.8431</v>
       </c>
       <c r="Q7" s="3">
-        <v>-0.0053</v>
+        <v>-0.0061</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1768,34 +1768,34 @@
         <v>15.3311</v>
       </c>
       <c r="C8" s="1">
-        <v>15.3311</v>
+        <v>15.3004</v>
       </c>
       <c r="D8" s="1">
-        <v>15.3311</v>
+        <v>15.3618</v>
       </c>
       <c r="E8" s="1">
-        <v>4201.6405</v>
+        <v>4192.6353</v>
       </c>
       <c r="F8" s="1">
-        <v>364.2419</v>
+        <v>382.4085</v>
       </c>
       <c r="G8" s="1">
         <v>70000</v>
       </c>
       <c r="H8" s="1">
-        <v>64415.7706</v>
+        <v>64148.997</v>
       </c>
       <c r="I8" s="1">
-        <v>1254.9384</v>
+        <v>1252.1569</v>
       </c>
       <c r="J8" s="1">
-        <v>65670.709</v>
+        <v>65401.1539</v>
       </c>
       <c r="K8" s="1">
-        <v>60307.6544</v>
+        <v>60307.0394</v>
       </c>
       <c r="L8" s="1">
-        <v>14.3534</v>
+        <v>14.384</v>
       </c>
       <c r="M8" s="1">
         <v>0</v>
@@ -1807,10 +1807,10 @@
         <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>-5584.2294</v>
+        <v>-5874.4828</v>
       </c>
       <c r="Q8" s="3">
-        <v>0.1071</v>
+        <v>0.1064</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1821,34 +1821,34 @@
         <v>15.3637</v>
       </c>
       <c r="C9" s="1">
-        <v>15.3637</v>
+        <v>15.333</v>
       </c>
       <c r="D9" s="1">
-        <v>15.3637</v>
+        <v>15.3945</v>
       </c>
       <c r="E9" s="1">
-        <v>4565.8824</v>
+        <v>4575.0438</v>
       </c>
       <c r="F9" s="1">
-        <v>641.1966</v>
+        <v>642.4609</v>
       </c>
       <c r="G9" s="1">
         <v>80000</v>
       </c>
       <c r="H9" s="1">
-        <v>70148.8478</v>
+        <v>70149.1464</v>
       </c>
       <c r="I9" s="1">
-        <v>5670.709</v>
+        <v>5377.674</v>
       </c>
       <c r="J9" s="1">
-        <v>75819.55680000001</v>
+        <v>75526.8204</v>
       </c>
       <c r="K9" s="1">
-        <v>65891.8838</v>
+        <v>66181.52220000001</v>
       </c>
       <c r="L9" s="1">
-        <v>14.4314</v>
+        <v>14.4658</v>
       </c>
       <c r="M9" s="1">
         <v>0</v>
@@ -1860,10 +1860,10 @@
         <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>-9851.1522</v>
+        <v>-9890.3649</v>
       </c>
       <c r="Q9" s="3">
-        <v>0.002</v>
+        <v>0.0017</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1874,49 +1874,49 @@
         <v>14.6447</v>
       </c>
       <c r="C10" s="1">
-        <v>14.6447</v>
+        <v>14.6154</v>
       </c>
       <c r="D10" s="1">
-        <v>14.6447</v>
+        <v>14.674</v>
       </c>
       <c r="E10" s="1">
-        <v>5207.079</v>
+        <v>5217.5047</v>
       </c>
       <c r="F10" s="1">
-        <v>938.489</v>
+        <v>940.3835</v>
       </c>
       <c r="G10" s="1">
         <v>90000</v>
       </c>
       <c r="H10" s="1">
-        <v>76256.1102</v>
+        <v>76255.9186</v>
       </c>
       <c r="I10" s="1">
-        <v>5819.5568</v>
+        <v>5487.3091</v>
       </c>
       <c r="J10" s="1">
-        <v>82075.667</v>
+        <v>81743.2277</v>
       </c>
       <c r="K10" s="1">
-        <v>75743.0361</v>
+        <v>76071.8872</v>
       </c>
       <c r="L10" s="1">
-        <v>14.5462</v>
+        <v>14.5801</v>
       </c>
       <c r="M10" s="1">
         <v>1</v>
       </c>
       <c r="N10" s="1">
-        <v>4109.2942</v>
+        <v>4117.5394</v>
       </c>
       <c r="O10" s="1">
         <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>-9634.595600000001</v>
+        <v>-9681.648499999999</v>
       </c>
       <c r="Q10" s="3">
-        <v>-0.0436</v>
+        <v>-0.0442</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1927,34 +1927,34 @@
         <v>15.486</v>
       </c>
       <c r="C11" s="1">
-        <v>15.486</v>
+        <v>15.455</v>
       </c>
       <c r="D11" s="1">
-        <v>15.486</v>
+        <v>15.517</v>
       </c>
       <c r="E11" s="1">
-        <v>6145.568</v>
+        <v>6157.8883</v>
       </c>
       <c r="F11" s="1">
-        <v>311.8774</v>
+        <v>312.5097</v>
       </c>
       <c r="G11" s="1">
         <v>100000</v>
       </c>
       <c r="H11" s="1">
-        <v>95170.26639999999</v>
+        <v>95170.163</v>
       </c>
       <c r="I11" s="1">
-        <v>6184.9611</v>
+        <v>5805.6606</v>
       </c>
       <c r="J11" s="1">
-        <v>101355.2275</v>
+        <v>100975.8236</v>
       </c>
       <c r="K11" s="1">
-        <v>89486.9259</v>
+        <v>89871.075</v>
       </c>
       <c r="L11" s="1">
-        <v>14.5612</v>
+        <v>14.5945</v>
       </c>
       <c r="M11" s="1">
         <v>0</v>
@@ -1966,10 +1966,10 @@
         <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>-4829.7336</v>
+        <v>-4849.2126</v>
       </c>
       <c r="Q11" s="3">
-        <v>0.1008</v>
+        <v>0.1006</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1980,34 +1980,34 @@
         <v>16.1958</v>
       </c>
       <c r="C12" s="1">
-        <v>16.1957</v>
+        <v>16.1634</v>
       </c>
       <c r="D12" s="1">
-        <v>16.1958</v>
+        <v>16.2282</v>
       </c>
       <c r="E12" s="1">
-        <v>6457.4454</v>
+        <v>6470.3979</v>
       </c>
       <c r="F12" s="1">
-        <v>334.4808</v>
+        <v>335.1009</v>
       </c>
       <c r="G12" s="1">
         <v>110000</v>
       </c>
       <c r="H12" s="1">
-        <v>104582.849</v>
+        <v>104583.6299</v>
       </c>
       <c r="I12" s="1">
-        <v>11355.2275</v>
+        <v>10956.448</v>
       </c>
       <c r="J12" s="1">
-        <v>115938.0765</v>
+        <v>115540.0779</v>
       </c>
       <c r="K12" s="1">
-        <v>94316.65949999999</v>
+        <v>94720.2876</v>
       </c>
       <c r="L12" s="1">
-        <v>14.6059</v>
+        <v>14.639</v>
       </c>
       <c r="M12" s="1">
         <v>0</v>
@@ -2019,10 +2019,10 @@
         <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>-5417.1844</v>
+        <v>-5438.0846</v>
       </c>
       <c r="Q12" s="3">
-        <v>0.0412</v>
+        <v>0.0411</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -2033,49 +2033,49 @@
         <v>16.4264</v>
       </c>
       <c r="C13" s="1">
-        <v>16.4264</v>
+        <v>16.3936</v>
       </c>
       <c r="D13" s="1">
-        <v>16.4264</v>
+        <v>16.4593</v>
       </c>
       <c r="E13" s="1">
-        <v>6791.9263</v>
+        <v>6805.4988</v>
       </c>
       <c r="F13" s="1">
-        <v>513.3871</v>
+        <v>514.4309</v>
       </c>
       <c r="G13" s="1">
         <v>120000</v>
       </c>
       <c r="H13" s="1">
-        <v>111566.8974</v>
+        <v>111566.6258</v>
       </c>
       <c r="I13" s="1">
-        <v>15938.0431</v>
+        <v>15518.3634</v>
       </c>
       <c r="J13" s="1">
-        <v>127504.9405</v>
+        <v>127084.9892</v>
       </c>
       <c r="K13" s="1">
-        <v>99733.84390000001</v>
+        <v>100158.3723</v>
       </c>
       <c r="L13" s="1">
-        <v>14.6842</v>
+        <v>14.7173</v>
       </c>
       <c r="M13" s="1">
         <v>0.75</v>
       </c>
       <c r="N13" s="1">
-        <v>4358.7757</v>
+        <v>4367.5186</v>
       </c>
       <c r="O13" s="1">
         <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>-4074.3269</v>
+        <v>-4099.6537</v>
       </c>
       <c r="Q13" s="3">
-        <v>0.0124</v>
+        <v>0.0123</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -2086,34 +2086,34 @@
         <v>17.107</v>
       </c>
       <c r="C14" s="1">
-        <v>17.107</v>
+        <v>17.0728</v>
       </c>
       <c r="D14" s="1">
-        <v>17.107</v>
+        <v>17.1413</v>
       </c>
       <c r="E14" s="1">
-        <v>7305.3134</v>
+        <v>7319.9297</v>
       </c>
       <c r="F14" s="1">
-        <v>-7305.3134</v>
+        <v>-7319.9297</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>124971.9963</v>
+        <v>124971.6963</v>
       </c>
       <c r="I14" s="1">
-        <v>21863.7161</v>
+        <v>21418.7097</v>
       </c>
       <c r="J14" s="1">
-        <v>146835.7124</v>
+        <v>146390.406</v>
       </c>
       <c r="K14" s="1">
-        <v>108166.9465</v>
+        <v>108625.5446</v>
       </c>
       <c r="L14" s="1">
-        <v>14.8066</v>
+        <v>14.8397</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
@@ -2125,7 +2125,7 @@
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>124971.9963</v>
+        <v>124971.6963</v>
       </c>
       <c r="Q14" s="3">
         <v>0.0679</v>
@@ -2224,16 +2224,16 @@
         <v>14.6268</v>
       </c>
       <c r="C2" s="1">
-        <v>14.6268</v>
+        <v>14.5976</v>
       </c>
       <c r="D2" s="1">
-        <v>14.6268</v>
+        <v>14.6561</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>683.6765</v>
+        <v>682.3098</v>
       </c>
       <c r="G2" s="1">
         <v>10000</v>
@@ -2271,34 +2271,34 @@
         <v>15.3636</v>
       </c>
       <c r="C3" s="1">
-        <v>15.3636</v>
+        <v>15.3329</v>
       </c>
       <c r="D3" s="1">
-        <v>15.3636</v>
+        <v>15.3944</v>
       </c>
       <c r="E3" s="1">
-        <v>683.6765</v>
+        <v>682.3098</v>
       </c>
       <c r="F3" s="1">
-        <v>621.3561</v>
+        <v>625.3359</v>
       </c>
       <c r="G3" s="1">
         <v>20050</v>
       </c>
       <c r="H3" s="1">
-        <v>10503.7329</v>
+        <v>10461.7872</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>10503.7329</v>
+        <v>10461.7872</v>
       </c>
       <c r="K3" s="1">
         <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>14.6268</v>
+        <v>14.6561</v>
       </c>
       <c r="M3" s="1">
         <v>0</v>
@@ -2310,10 +2310,10 @@
         <v>10000</v>
       </c>
       <c r="P3" s="1">
-        <v>-9546.267099999999</v>
+        <v>-9626.670899999999</v>
       </c>
       <c r="Q3" s="3">
-        <v>0.0504</v>
+        <v>0.0462</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -2324,49 +2324,49 @@
         <v>13.8711</v>
       </c>
       <c r="C4" s="1">
-        <v>13.8711</v>
+        <v>13.8434</v>
       </c>
       <c r="D4" s="1">
-        <v>13.8711</v>
+        <v>13.8989</v>
       </c>
       <c r="E4" s="1">
-        <v>1305.0327</v>
+        <v>1307.6457</v>
       </c>
       <c r="F4" s="1">
-        <v>753.634</v>
+        <v>746.3416999999999</v>
       </c>
       <c r="G4" s="1">
         <v>30150.25</v>
       </c>
       <c r="H4" s="1">
-        <v>18102.2387</v>
+        <v>18102.2618</v>
       </c>
       <c r="I4" s="1">
-        <v>453.7329</v>
+        <v>373.3291</v>
       </c>
       <c r="J4" s="1">
-        <v>18555.9716</v>
+        <v>18475.5909</v>
       </c>
       <c r="K4" s="1">
-        <v>19546.2671</v>
+        <v>19626.6709</v>
       </c>
       <c r="L4" s="1">
-        <v>14.9776</v>
+        <v>15.0092</v>
       </c>
       <c r="M4" s="1">
         <v>0.5</v>
       </c>
       <c r="N4" s="1">
-        <v>307.6544</v>
+        <v>307.0394</v>
       </c>
       <c r="O4" s="1">
         <v>10000</v>
       </c>
       <c r="P4" s="1">
-        <v>-10146.0784</v>
+        <v>-10066.2897</v>
       </c>
       <c r="Q4" s="3">
-        <v>-0.095</v>
+        <v>-0.09710000000000001</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -2377,34 +2377,34 @@
         <v>14.1252</v>
       </c>
       <c r="C5" s="1">
-        <v>14.1252</v>
+        <v>14.097</v>
       </c>
       <c r="D5" s="1">
-        <v>14.1252</v>
+        <v>14.1535</v>
       </c>
       <c r="E5" s="1">
-        <v>2058.6667</v>
+        <v>2053.9874</v>
       </c>
       <c r="F5" s="1">
-        <v>729.7351</v>
+        <v>728.2325</v>
       </c>
       <c r="G5" s="1">
         <v>40301.0012</v>
       </c>
       <c r="H5" s="1">
-        <v>29079.0788</v>
+        <v>28955.0601</v>
       </c>
       <c r="I5" s="1">
-        <v>307.6544</v>
+        <v>307.0394</v>
       </c>
       <c r="J5" s="1">
-        <v>29386.7333</v>
+        <v>29262.0995</v>
       </c>
       <c r="K5" s="1">
         <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>14.5725</v>
+        <v>14.6057</v>
       </c>
       <c r="M5" s="1">
         <v>0</v>
@@ -2416,10 +2416,10 @@
         <v>10000</v>
       </c>
       <c r="P5" s="1">
-        <v>-10307.6544</v>
+        <v>-10307.0394</v>
       </c>
       <c r="Q5" s="3">
-        <v>0.0291</v>
+        <v>0.0276</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -2430,34 +2430,34 @@
         <v>14.1934</v>
       </c>
       <c r="C6" s="1">
-        <v>14.1934</v>
+        <v>14.165</v>
       </c>
       <c r="D6" s="1">
-        <v>14.1934</v>
+        <v>14.2218</v>
       </c>
       <c r="E6" s="1">
-        <v>2788.4018</v>
+        <v>2782.2199</v>
       </c>
       <c r="F6" s="1">
-        <v>704.5528</v>
+        <v>703.1459</v>
       </c>
       <c r="G6" s="1">
         <v>50502.5063</v>
       </c>
       <c r="H6" s="1">
-        <v>39576.9023</v>
+        <v>39410.1453</v>
       </c>
       <c r="I6" s="1">
         <v>0</v>
       </c>
       <c r="J6" s="1">
-        <v>39576.9023</v>
+        <v>39410.1453</v>
       </c>
       <c r="K6" s="1">
-        <v>40307.6544</v>
+        <v>40307.0394</v>
       </c>
       <c r="L6" s="1">
-        <v>14.4555</v>
+        <v>14.4874</v>
       </c>
       <c r="M6" s="1">
         <v>0</v>
@@ -2472,7 +2472,7 @@
         <v>-10000</v>
       </c>
       <c r="Q6" s="3">
-        <v>0.0048</v>
+        <v>0.0038</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -2483,49 +2483,49 @@
         <v>14.1176</v>
       </c>
       <c r="C7" s="1">
-        <v>14.1176</v>
+        <v>14.0894</v>
       </c>
       <c r="D7" s="1">
-        <v>14.1176</v>
+        <v>14.1459</v>
       </c>
       <c r="E7" s="1">
-        <v>3492.9546</v>
+        <v>3485.3658</v>
       </c>
       <c r="F7" s="1">
-        <v>708.3357</v>
+        <v>706.9186</v>
       </c>
       <c r="G7" s="1">
         <v>60755.0188</v>
       </c>
       <c r="H7" s="1">
-        <v>49312.1363</v>
+        <v>49106.713</v>
       </c>
       <c r="I7" s="1">
         <v>0</v>
       </c>
       <c r="J7" s="1">
-        <v>49312.1363</v>
+        <v>49106.713</v>
       </c>
       <c r="K7" s="1">
-        <v>50307.6544</v>
+        <v>50307.0394</v>
       </c>
       <c r="L7" s="1">
-        <v>14.4026</v>
+        <v>14.4338</v>
       </c>
       <c r="M7" s="1">
         <v>0.5</v>
       </c>
       <c r="N7" s="1">
-        <v>1254.7808</v>
+        <v>1251.999</v>
       </c>
       <c r="O7" s="1">
         <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>-8745.2192</v>
+        <v>-8748.001</v>
       </c>
       <c r="Q7" s="3">
-        <v>-0.0053</v>
+        <v>-0.0061</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -2536,34 +2536,34 @@
         <v>15.3311</v>
       </c>
       <c r="C8" s="1">
-        <v>15.3311</v>
+        <v>15.3004</v>
       </c>
       <c r="D8" s="1">
-        <v>15.3311</v>
+        <v>15.3618</v>
       </c>
       <c r="E8" s="1">
-        <v>4201.2903</v>
+        <v>4192.2844</v>
       </c>
       <c r="F8" s="1">
-        <v>433.6539</v>
+        <v>451.9598</v>
       </c>
       <c r="G8" s="1">
         <v>71058.7939</v>
       </c>
       <c r="H8" s="1">
-        <v>64410.4021</v>
+        <v>64143.6285</v>
       </c>
       <c r="I8" s="1">
-        <v>1254.7808</v>
+        <v>1251.999</v>
       </c>
       <c r="J8" s="1">
-        <v>65665.1829</v>
+        <v>65395.6275</v>
       </c>
       <c r="K8" s="1">
-        <v>60307.6544</v>
+        <v>60307.0394</v>
       </c>
       <c r="L8" s="1">
-        <v>14.3546</v>
+        <v>14.3852</v>
       </c>
       <c r="M8" s="1">
         <v>0</v>
@@ -2575,10 +2575,10 @@
         <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>-6648.3918</v>
+        <v>-6942.9157</v>
       </c>
       <c r="Q8" s="3">
-        <v>0.1071</v>
+        <v>0.1064</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -2589,34 +2589,34 @@
         <v>15.3637</v>
       </c>
       <c r="C9" s="1">
-        <v>15.3637</v>
+        <v>15.333</v>
       </c>
       <c r="D9" s="1">
-        <v>15.3637</v>
+        <v>15.3945</v>
       </c>
       <c r="E9" s="1">
-        <v>4634.9443</v>
+        <v>4644.2442</v>
       </c>
       <c r="F9" s="1">
-        <v>664.1756</v>
+        <v>665.4857</v>
       </c>
       <c r="G9" s="1">
         <v>81414.0879</v>
       </c>
       <c r="H9" s="1">
-        <v>71209.8931</v>
+        <v>71210.19620000001</v>
       </c>
       <c r="I9" s="1">
-        <v>4606.389</v>
+        <v>4309.0833</v>
       </c>
       <c r="J9" s="1">
-        <v>75816.2821</v>
+        <v>75519.2795</v>
       </c>
       <c r="K9" s="1">
-        <v>66956.0462</v>
+        <v>67249.95510000001</v>
       </c>
       <c r="L9" s="1">
-        <v>14.4459</v>
+        <v>14.4803</v>
       </c>
       <c r="M9" s="1">
         <v>0</v>
@@ -2628,10 +2628,10 @@
         <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>-10204.1948</v>
+        <v>-10244.819</v>
       </c>
       <c r="Q9" s="3">
-        <v>0.002</v>
+        <v>0.0016</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -2642,49 +2642,49 @@
         <v>14.6447</v>
       </c>
       <c r="C10" s="1">
-        <v>14.6447</v>
+        <v>14.6154</v>
       </c>
       <c r="D10" s="1">
-        <v>14.6447</v>
+        <v>14.674</v>
       </c>
       <c r="E10" s="1">
-        <v>5299.1199</v>
+        <v>5309.7299</v>
       </c>
       <c r="F10" s="1">
-        <v>970.8043</v>
+        <v>958.4479</v>
       </c>
       <c r="G10" s="1">
         <v>91821.1583</v>
       </c>
       <c r="H10" s="1">
-        <v>77604.02069999999</v>
+        <v>77603.8257</v>
       </c>
       <c r="I10" s="1">
-        <v>4402.1943</v>
+        <v>4064.2643</v>
       </c>
       <c r="J10" s="1">
-        <v>82006.21490000001</v>
+        <v>81668.09</v>
       </c>
       <c r="K10" s="1">
-        <v>77160.24099999999</v>
+        <v>77494.7741</v>
       </c>
       <c r="L10" s="1">
-        <v>14.561</v>
+        <v>14.5949</v>
       </c>
       <c r="M10" s="1">
         <v>1</v>
       </c>
       <c r="N10" s="1">
-        <v>4171.4498</v>
+        <v>4179.8198</v>
       </c>
       <c r="O10" s="1">
         <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>-10045.6878</v>
+        <v>-9884.4445</v>
       </c>
       <c r="Q10" s="3">
-        <v>-0.0444</v>
+        <v>-0.045</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -2695,34 +2695,34 @@
         <v>15.486</v>
       </c>
       <c r="C11" s="1">
-        <v>15.486</v>
+        <v>15.455</v>
       </c>
       <c r="D11" s="1">
-        <v>15.486</v>
+        <v>15.517</v>
       </c>
       <c r="E11" s="1">
-        <v>6269.9242</v>
+        <v>6268.1777</v>
       </c>
       <c r="F11" s="1">
-        <v>334.7681</v>
+        <v>349.7623</v>
       </c>
       <c r="G11" s="1">
         <v>102280.2641</v>
       </c>
       <c r="H11" s="1">
-        <v>97096.04549999999</v>
+        <v>96874.68700000001</v>
       </c>
       <c r="I11" s="1">
-        <v>4356.5065</v>
+        <v>4179.8198</v>
       </c>
       <c r="J11" s="1">
-        <v>101452.5519</v>
+        <v>101054.5068</v>
       </c>
       <c r="K11" s="1">
-        <v>91377.3786</v>
+        <v>91559.0384</v>
       </c>
       <c r="L11" s="1">
-        <v>14.5739</v>
+        <v>14.607</v>
       </c>
       <c r="M11" s="1">
         <v>0</v>
@@ -2734,10 +2734,10 @@
         <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>-5184.2186</v>
+        <v>-5427.2624</v>
       </c>
       <c r="Q11" s="3">
-        <v>0.1027</v>
+        <v>0.1024</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -2748,34 +2748,34 @@
         <v>16.1958</v>
       </c>
       <c r="C12" s="1">
-        <v>16.1957</v>
+        <v>16.1634</v>
       </c>
       <c r="D12" s="1">
-        <v>16.1958</v>
+        <v>16.2282</v>
       </c>
       <c r="E12" s="1">
-        <v>6604.6922</v>
+        <v>6617.9401</v>
       </c>
       <c r="F12" s="1">
-        <v>359.6048</v>
+        <v>360.274</v>
       </c>
       <c r="G12" s="1">
         <v>112791.6654</v>
       </c>
       <c r="H12" s="1">
-        <v>106967.6142</v>
+        <v>106968.4128</v>
       </c>
       <c r="I12" s="1">
-        <v>9172.287899999999</v>
+        <v>8752.5574</v>
       </c>
       <c r="J12" s="1">
-        <v>116139.902</v>
+        <v>115720.9703</v>
       </c>
       <c r="K12" s="1">
-        <v>96561.5972</v>
+        <v>96986.30070000001</v>
       </c>
       <c r="L12" s="1">
-        <v>14.6202</v>
+        <v>14.6551</v>
       </c>
       <c r="M12" s="1">
         <v>0</v>
@@ -2787,10 +2787,10 @@
         <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>-5824.0872</v>
+        <v>-5846.5983</v>
       </c>
       <c r="Q12" s="3">
-        <v>0.0421</v>
+        <v>0.042</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -2801,49 +2801,49 @@
         <v>16.4264</v>
       </c>
       <c r="C13" s="1">
-        <v>16.4264</v>
+        <v>16.3936</v>
       </c>
       <c r="D13" s="1">
-        <v>16.4264</v>
+        <v>16.4593</v>
       </c>
       <c r="E13" s="1">
-        <v>6964.297</v>
+        <v>6978.2141</v>
       </c>
       <c r="F13" s="1">
-        <v>545.2987000000001</v>
+        <v>546.4067</v>
       </c>
       <c r="G13" s="1">
         <v>123355.6237</v>
       </c>
       <c r="H13" s="1">
-        <v>114398.3287</v>
+        <v>114398.0503</v>
       </c>
       <c r="I13" s="1">
-        <v>13348.2007</v>
+        <v>12905.9591</v>
       </c>
       <c r="J13" s="1">
-        <v>127746.5294</v>
+        <v>127304.0094</v>
       </c>
       <c r="K13" s="1">
-        <v>102385.6844</v>
+        <v>102832.899</v>
       </c>
       <c r="L13" s="1">
-        <v>14.7015</v>
+        <v>14.7363</v>
       </c>
       <c r="M13" s="1">
         <v>0.75</v>
       </c>
       <c r="N13" s="1">
-        <v>4458.1673</v>
+        <v>4467.1096</v>
       </c>
       <c r="O13" s="1">
         <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>-4499.1277</v>
+        <v>-4526.3628</v>
       </c>
       <c r="Q13" s="3">
-        <v>0.0127</v>
+        <v>0.0126</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -2854,34 +2854,34 @@
         <v>17.107</v>
       </c>
       <c r="C14" s="1">
-        <v>17.107</v>
+        <v>17.0728</v>
       </c>
       <c r="D14" s="1">
-        <v>17.107</v>
+        <v>17.1413</v>
       </c>
       <c r="E14" s="1">
-        <v>7509.5958</v>
+        <v>7524.6208</v>
       </c>
       <c r="F14" s="1">
-        <v>-7509.5958</v>
+        <v>-7524.6208</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>128466.6546</v>
+        <v>128466.3462</v>
       </c>
       <c r="I14" s="1">
-        <v>18849.0729</v>
+        <v>18379.5963</v>
       </c>
       <c r="J14" s="1">
-        <v>147315.7275</v>
+        <v>146845.9425</v>
       </c>
       <c r="K14" s="1">
-        <v>111342.9794</v>
+        <v>111826.3714</v>
       </c>
       <c r="L14" s="1">
-        <v>14.8268</v>
+        <v>14.8614</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
@@ -2893,7 +2893,7 @@
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>128466.6546</v>
+        <v>128466.3462</v>
       </c>
       <c r="Q14" s="3">
         <v>0.06950000000000001</v>
@@ -2992,16 +2992,16 @@
         <v>14.6268</v>
       </c>
       <c r="C2" s="1">
-        <v>14.6268</v>
+        <v>14.5976</v>
       </c>
       <c r="D2" s="1">
-        <v>14.6268</v>
+        <v>14.6561</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>683.6765</v>
+        <v>682.3098</v>
       </c>
       <c r="G2" s="1">
         <v>10000</v>
@@ -3039,34 +3039,34 @@
         <v>15.3636</v>
       </c>
       <c r="C3" s="1">
-        <v>15.3636</v>
+        <v>15.3329</v>
       </c>
       <c r="D3" s="1">
-        <v>15.3636</v>
+        <v>15.3944</v>
       </c>
       <c r="E3" s="1">
-        <v>683.6765</v>
+        <v>682.3098</v>
       </c>
       <c r="F3" s="1">
-        <v>624.6106</v>
+        <v>628.5969</v>
       </c>
       <c r="G3" s="1">
         <v>20100</v>
       </c>
       <c r="H3" s="1">
-        <v>10503.7329</v>
+        <v>10461.7872</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>10503.7329</v>
+        <v>10461.7872</v>
       </c>
       <c r="K3" s="1">
         <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>14.6268</v>
+        <v>14.6561</v>
       </c>
       <c r="M3" s="1">
         <v>0</v>
@@ -3078,10 +3078,10 @@
         <v>10000</v>
       </c>
       <c r="P3" s="1">
-        <v>-9596.267099999999</v>
+        <v>-9676.871499999999</v>
       </c>
       <c r="Q3" s="3">
-        <v>0.0504</v>
+        <v>0.0462</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -3092,49 +3092,49 @@
         <v>13.8711</v>
       </c>
       <c r="C4" s="1">
-        <v>13.8711</v>
+        <v>13.8434</v>
       </c>
       <c r="D4" s="1">
-        <v>13.8711</v>
+        <v>13.8989</v>
       </c>
       <c r="E4" s="1">
-        <v>1308.2871</v>
+        <v>1310.9066</v>
       </c>
       <c r="F4" s="1">
-        <v>750.0294</v>
+        <v>742.7299</v>
       </c>
       <c r="G4" s="1">
         <v>30301</v>
       </c>
       <c r="H4" s="1">
-        <v>18147.3815</v>
+        <v>18147.4046</v>
       </c>
       <c r="I4" s="1">
-        <v>403.7329</v>
+        <v>323.1285</v>
       </c>
       <c r="J4" s="1">
-        <v>18551.1143</v>
+        <v>18470.5331</v>
       </c>
       <c r="K4" s="1">
-        <v>19596.2671</v>
+        <v>19676.8715</v>
       </c>
       <c r="L4" s="1">
-        <v>14.9786</v>
+        <v>15.0101</v>
       </c>
       <c r="M4" s="1">
         <v>0.5</v>
       </c>
       <c r="N4" s="1">
-        <v>307.6544</v>
+        <v>307.0394</v>
       </c>
       <c r="O4" s="1">
         <v>10000</v>
       </c>
       <c r="P4" s="1">
-        <v>-10096.0784</v>
+        <v>-10016.0891</v>
       </c>
       <c r="Q4" s="3">
-        <v>-0.09520000000000001</v>
+        <v>-0.0973</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -3145,34 +3145,34 @@
         <v>14.1252</v>
       </c>
       <c r="C5" s="1">
-        <v>14.1252</v>
+        <v>14.097</v>
       </c>
       <c r="D5" s="1">
-        <v>14.1252</v>
+        <v>14.1535</v>
       </c>
       <c r="E5" s="1">
-        <v>2058.3165</v>
+        <v>2053.6365</v>
       </c>
       <c r="F5" s="1">
-        <v>729.7351</v>
+        <v>728.2325</v>
       </c>
       <c r="G5" s="1">
         <v>40604.01</v>
       </c>
       <c r="H5" s="1">
-        <v>29074.1326</v>
+        <v>28950.1138</v>
       </c>
       <c r="I5" s="1">
-        <v>307.6544</v>
+        <v>307.0394</v>
       </c>
       <c r="J5" s="1">
-        <v>29381.787</v>
+        <v>29257.1532</v>
       </c>
       <c r="K5" s="1">
         <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>14.575</v>
+        <v>14.6082</v>
       </c>
       <c r="M5" s="1">
         <v>0</v>
@@ -3184,10 +3184,10 @@
         <v>10000</v>
       </c>
       <c r="P5" s="1">
-        <v>-10307.6544</v>
+        <v>-10307.0394</v>
       </c>
       <c r="Q5" s="3">
-        <v>0.0291</v>
+        <v>0.0276</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -3198,34 +3198,34 @@
         <v>14.1934</v>
       </c>
       <c r="C6" s="1">
-        <v>14.1934</v>
+        <v>14.165</v>
       </c>
       <c r="D6" s="1">
-        <v>14.1934</v>
+        <v>14.2218</v>
       </c>
       <c r="E6" s="1">
-        <v>2788.0516</v>
+        <v>2781.8691</v>
       </c>
       <c r="F6" s="1">
-        <v>704.5528</v>
+        <v>703.1459</v>
       </c>
       <c r="G6" s="1">
         <v>51010.0501</v>
       </c>
       <c r="H6" s="1">
-        <v>39571.9321</v>
+        <v>39405.1752</v>
       </c>
       <c r="I6" s="1">
         <v>0</v>
       </c>
       <c r="J6" s="1">
-        <v>39571.9321</v>
+        <v>39405.1752</v>
       </c>
       <c r="K6" s="1">
-        <v>40307.6544</v>
+        <v>40307.0394</v>
       </c>
       <c r="L6" s="1">
-        <v>14.4573</v>
+        <v>14.4892</v>
       </c>
       <c r="M6" s="1">
         <v>0</v>
@@ -3240,7 +3240,7 @@
         <v>-10000</v>
       </c>
       <c r="Q6" s="3">
-        <v>0.0048</v>
+        <v>0.0038</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -3251,49 +3251,49 @@
         <v>14.1176</v>
       </c>
       <c r="C7" s="1">
-        <v>14.1176</v>
+        <v>14.0894</v>
       </c>
       <c r="D7" s="1">
-        <v>14.1176</v>
+        <v>14.1459</v>
       </c>
       <c r="E7" s="1">
-        <v>3492.6045</v>
+        <v>3485.0149</v>
       </c>
       <c r="F7" s="1">
-        <v>708.3357</v>
+        <v>706.9186</v>
       </c>
       <c r="G7" s="1">
         <v>61520.1506</v>
       </c>
       <c r="H7" s="1">
-        <v>49307.1927</v>
+        <v>49101.7694</v>
       </c>
       <c r="I7" s="1">
         <v>0</v>
       </c>
       <c r="J7" s="1">
-        <v>49307.1927</v>
+        <v>49101.7694</v>
       </c>
       <c r="K7" s="1">
-        <v>50307.6544</v>
+        <v>50307.0394</v>
       </c>
       <c r="L7" s="1">
-        <v>14.4041</v>
+        <v>14.4352</v>
       </c>
       <c r="M7" s="1">
         <v>0.5</v>
       </c>
       <c r="N7" s="1">
-        <v>1254.6232</v>
+        <v>1251.8411</v>
       </c>
       <c r="O7" s="1">
         <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>-8745.3768</v>
+        <v>-8748.1589</v>
       </c>
       <c r="Q7" s="3">
-        <v>-0.0053</v>
+        <v>-0.0061</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -3304,34 +3304,34 @@
         <v>15.3311</v>
       </c>
       <c r="C8" s="1">
-        <v>15.3311</v>
+        <v>15.3004</v>
       </c>
       <c r="D8" s="1">
-        <v>15.3311</v>
+        <v>15.3618</v>
       </c>
       <c r="E8" s="1">
-        <v>4200.9402</v>
+        <v>4191.9335</v>
       </c>
       <c r="F8" s="1">
-        <v>504.2246</v>
+        <v>522.6721</v>
       </c>
       <c r="G8" s="1">
         <v>72135.3521</v>
       </c>
       <c r="H8" s="1">
-        <v>64405.0336</v>
+        <v>64138.26</v>
       </c>
       <c r="I8" s="1">
-        <v>1254.6232</v>
+        <v>1251.8411</v>
       </c>
       <c r="J8" s="1">
-        <v>65659.6568</v>
+        <v>65390.1011</v>
       </c>
       <c r="K8" s="1">
-        <v>60307.6544</v>
+        <v>60307.0394</v>
       </c>
       <c r="L8" s="1">
-        <v>14.3558</v>
+        <v>14.3864</v>
       </c>
       <c r="M8" s="1">
         <v>0</v>
@@ -3343,10 +3343,10 @@
         <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>-7730.3185</v>
+        <v>-8029.1842</v>
       </c>
       <c r="Q8" s="3">
-        <v>0.1071</v>
+        <v>0.1064</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -3357,34 +3357,34 @@
         <v>15.3637</v>
       </c>
       <c r="C9" s="1">
-        <v>15.3637</v>
+        <v>15.333</v>
       </c>
       <c r="D9" s="1">
-        <v>15.3637</v>
+        <v>15.3945</v>
       </c>
       <c r="E9" s="1">
-        <v>4705.1648</v>
+        <v>4714.6056</v>
       </c>
       <c r="F9" s="1">
-        <v>687.8529</v>
+        <v>689.21</v>
       </c>
       <c r="G9" s="1">
         <v>82856.7056</v>
       </c>
       <c r="H9" s="1">
-        <v>72288.7405</v>
+        <v>72289.04829999999</v>
       </c>
       <c r="I9" s="1">
-        <v>3524.3047</v>
+        <v>3222.6569</v>
       </c>
       <c r="J9" s="1">
-        <v>75813.04519999999</v>
+        <v>75511.7052</v>
       </c>
       <c r="K9" s="1">
-        <v>68037.973</v>
+        <v>68336.2236</v>
       </c>
       <c r="L9" s="1">
-        <v>14.4603</v>
+        <v>14.4946</v>
       </c>
       <c r="M9" s="1">
         <v>0</v>
@@ -3396,10 +3396,10 @@
         <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>-10567.9651</v>
+        <v>-10610.0438</v>
       </c>
       <c r="Q9" s="3">
-        <v>0.002</v>
+        <v>0.0016</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -3410,49 +3410,49 @@
         <v>14.6447</v>
       </c>
       <c r="C10" s="1">
-        <v>14.6447</v>
+        <v>14.6154</v>
       </c>
       <c r="D10" s="1">
-        <v>14.6447</v>
+        <v>14.674</v>
       </c>
       <c r="E10" s="1">
-        <v>5393.0177</v>
+        <v>5403.8157</v>
       </c>
       <c r="F10" s="1">
-        <v>884.7118</v>
+        <v>859.5211</v>
       </c>
       <c r="G10" s="1">
         <v>93685.2727</v>
       </c>
       <c r="H10" s="1">
-        <v>78979.1259</v>
+        <v>78978.92750000001</v>
       </c>
       <c r="I10" s="1">
-        <v>2956.3396</v>
+        <v>2612.6131</v>
       </c>
       <c r="J10" s="1">
-        <v>81935.46550000001</v>
+        <v>81591.54059999999</v>
       </c>
       <c r="K10" s="1">
-        <v>78605.9381</v>
+        <v>78946.2674</v>
       </c>
       <c r="L10" s="1">
-        <v>14.5755</v>
+        <v>14.6094</v>
       </c>
       <c r="M10" s="1">
         <v>1</v>
       </c>
       <c r="N10" s="1">
-        <v>4234.6483</v>
+        <v>4243.1451</v>
       </c>
       <c r="O10" s="1">
         <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>-8721.6913</v>
+        <v>-8369.468000000001</v>
       </c>
       <c r="Q10" s="3">
-        <v>-0.0452</v>
+        <v>-0.0458</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -3463,34 +3463,34 @@
         <v>15.486</v>
       </c>
       <c r="C11" s="1">
-        <v>15.486</v>
+        <v>15.455</v>
       </c>
       <c r="D11" s="1">
-        <v>15.486</v>
+        <v>15.517</v>
       </c>
       <c r="E11" s="1">
-        <v>6277.7295</v>
+        <v>6263.3368</v>
       </c>
       <c r="F11" s="1">
-        <v>478.1871</v>
+        <v>506.131</v>
       </c>
       <c r="G11" s="1">
         <v>104622.1254</v>
       </c>
       <c r="H11" s="1">
-        <v>97216.91929999999</v>
+        <v>96799.8702</v>
       </c>
       <c r="I11" s="1">
-        <v>4234.6483</v>
+        <v>4243.1451</v>
       </c>
       <c r="J11" s="1">
-        <v>101451.5677</v>
+        <v>101043.0153</v>
       </c>
       <c r="K11" s="1">
-        <v>91562.27770000001</v>
+        <v>91558.8805</v>
       </c>
       <c r="L11" s="1">
-        <v>14.5853</v>
+        <v>14.6182</v>
       </c>
       <c r="M11" s="1">
         <v>0</v>
@@ -3502,10 +3502,10 @@
         <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>-7405.2061</v>
+        <v>-7853.6353</v>
       </c>
       <c r="Q11" s="3">
-        <v>0.1035</v>
+        <v>0.1032</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -3516,34 +3516,34 @@
         <v>16.1958</v>
       </c>
       <c r="C12" s="1">
-        <v>16.1957</v>
+        <v>16.1634</v>
       </c>
       <c r="D12" s="1">
-        <v>16.1958</v>
+        <v>16.2282</v>
       </c>
       <c r="E12" s="1">
-        <v>6755.9167</v>
+        <v>6769.4678</v>
       </c>
       <c r="F12" s="1">
-        <v>386.0004</v>
+        <v>386.7212</v>
       </c>
       <c r="G12" s="1">
         <v>115668.3467</v>
       </c>
       <c r="H12" s="1">
-        <v>109416.7995</v>
+        <v>109417.6164</v>
       </c>
       <c r="I12" s="1">
-        <v>6829.4423</v>
+        <v>6389.5098</v>
       </c>
       <c r="J12" s="1">
-        <v>116246.2417</v>
+        <v>115807.1262</v>
       </c>
       <c r="K12" s="1">
-        <v>98967.4837</v>
+        <v>99412.51579999999</v>
       </c>
       <c r="L12" s="1">
-        <v>14.649</v>
+        <v>14.6854</v>
       </c>
       <c r="M12" s="1">
         <v>0</v>
@@ -3555,10 +3555,10 @@
         <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>-6251.5858</v>
+        <v>-6275.7898</v>
       </c>
       <c r="Q12" s="3">
-        <v>0.043</v>
+        <v>0.0429</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -3569,49 +3569,49 @@
         <v>16.4264</v>
       </c>
       <c r="C13" s="1">
-        <v>16.4264</v>
+        <v>16.3936</v>
       </c>
       <c r="D13" s="1">
-        <v>16.4264</v>
+        <v>16.4593</v>
       </c>
       <c r="E13" s="1">
-        <v>7141.9171</v>
+        <v>7156.1891</v>
       </c>
       <c r="F13" s="1">
-        <v>578.8878</v>
+        <v>580.0635</v>
       </c>
       <c r="G13" s="1">
         <v>126825.0301</v>
       </c>
       <c r="H13" s="1">
-        <v>117315.9869</v>
+        <v>117315.7014</v>
       </c>
       <c r="I13" s="1">
-        <v>10577.8565</v>
+        <v>10113.72</v>
       </c>
       <c r="J13" s="1">
-        <v>127893.8434</v>
+        <v>127429.4214</v>
       </c>
       <c r="K13" s="1">
-        <v>105219.0695</v>
+        <v>105688.3055</v>
       </c>
       <c r="L13" s="1">
-        <v>14.7326</v>
+        <v>14.7688</v>
       </c>
       <c r="M13" s="1">
         <v>0.75</v>
       </c>
       <c r="N13" s="1">
-        <v>4560.2437</v>
+        <v>4569.3908</v>
       </c>
       <c r="O13" s="1">
         <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>-4948.7994</v>
+        <v>-4978.0481</v>
       </c>
       <c r="Q13" s="3">
-        <v>0.0131</v>
+        <v>0.0129</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -3622,34 +3622,34 @@
         <v>17.107</v>
       </c>
       <c r="C14" s="1">
-        <v>17.107</v>
+        <v>17.0728</v>
       </c>
       <c r="D14" s="1">
-        <v>17.107</v>
+        <v>17.1413</v>
       </c>
       <c r="E14" s="1">
-        <v>7720.8049</v>
+        <v>7736.2526</v>
       </c>
       <c r="F14" s="1">
-        <v>-7720.8049</v>
+        <v>-7736.2526</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>132079.81</v>
+        <v>132079.4929</v>
       </c>
       <c r="I14" s="1">
-        <v>15629.057</v>
+        <v>15135.6719</v>
       </c>
       <c r="J14" s="1">
-        <v>147708.867</v>
+        <v>147215.1648</v>
       </c>
       <c r="K14" s="1">
-        <v>114728.1127</v>
+        <v>115235.7444</v>
       </c>
       <c r="L14" s="1">
-        <v>14.8596</v>
+        <v>14.8956</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
@@ -3661,7 +3661,7 @@
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>132079.81</v>
+        <v>132079.4929</v>
       </c>
       <c r="Q14" s="3">
         <v>0.0712</v>
@@ -3760,16 +3760,16 @@
         <v>14.6268</v>
       </c>
       <c r="C2" s="1">
-        <v>14.6268</v>
+        <v>14.5976</v>
       </c>
       <c r="D2" s="1">
-        <v>14.6268</v>
+        <v>14.6561</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>683.6765</v>
+        <v>682.3098</v>
       </c>
       <c r="G2" s="1">
         <v>10000</v>
@@ -3807,34 +3807,34 @@
         <v>15.3636</v>
       </c>
       <c r="C3" s="1">
-        <v>15.3636</v>
+        <v>15.3329</v>
       </c>
       <c r="D3" s="1">
-        <v>15.3636</v>
+        <v>15.3944</v>
       </c>
       <c r="E3" s="1">
-        <v>683.6765</v>
+        <v>682.3098</v>
       </c>
       <c r="F3" s="1">
-        <v>627.865</v>
+        <v>631.8578</v>
       </c>
       <c r="G3" s="1">
         <v>20150</v>
       </c>
       <c r="H3" s="1">
-        <v>10503.7329</v>
+        <v>10461.7872</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>10503.7329</v>
+        <v>10461.7872</v>
       </c>
       <c r="K3" s="1">
         <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>14.6268</v>
+        <v>14.6561</v>
       </c>
       <c r="M3" s="1">
         <v>0</v>
@@ -3846,10 +3846,10 @@
         <v>10000</v>
       </c>
       <c r="P3" s="1">
-        <v>-9646.267099999999</v>
+        <v>-9727.072</v>
       </c>
       <c r="Q3" s="3">
-        <v>0.0504</v>
+        <v>0.0462</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -3860,49 +3860,49 @@
         <v>13.8711</v>
       </c>
       <c r="C4" s="1">
-        <v>13.8711</v>
+        <v>13.8434</v>
       </c>
       <c r="D4" s="1">
-        <v>13.8711</v>
+        <v>13.8989</v>
       </c>
       <c r="E4" s="1">
-        <v>1311.5416</v>
+        <v>1314.1676</v>
       </c>
       <c r="F4" s="1">
-        <v>746.4248</v>
+        <v>739.1181</v>
       </c>
       <c r="G4" s="1">
         <v>30452.25</v>
       </c>
       <c r="H4" s="1">
-        <v>18192.5242</v>
+        <v>18192.5474</v>
       </c>
       <c r="I4" s="1">
-        <v>353.7329</v>
+        <v>272.928</v>
       </c>
       <c r="J4" s="1">
-        <v>18546.2571</v>
+        <v>18465.4754</v>
       </c>
       <c r="K4" s="1">
-        <v>19646.2671</v>
+        <v>19727.072</v>
       </c>
       <c r="L4" s="1">
-        <v>14.9795</v>
+        <v>15.0111</v>
       </c>
       <c r="M4" s="1">
         <v>0.5</v>
       </c>
       <c r="N4" s="1">
-        <v>307.6544</v>
+        <v>307.0394</v>
       </c>
       <c r="O4" s="1">
         <v>10000</v>
       </c>
       <c r="P4" s="1">
-        <v>-10046.0784</v>
+        <v>-9965.8886</v>
       </c>
       <c r="Q4" s="3">
-        <v>-0.0955</v>
+        <v>-0.09760000000000001</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -3913,34 +3913,34 @@
         <v>14.1252</v>
       </c>
       <c r="C5" s="1">
-        <v>14.1252</v>
+        <v>14.097</v>
       </c>
       <c r="D5" s="1">
-        <v>14.1252</v>
+        <v>14.1535</v>
       </c>
       <c r="E5" s="1">
-        <v>2057.9664</v>
+        <v>2053.2856</v>
       </c>
       <c r="F5" s="1">
-        <v>729.7351</v>
+        <v>728.2325</v>
       </c>
       <c r="G5" s="1">
         <v>40909.0337</v>
       </c>
       <c r="H5" s="1">
-        <v>29069.1863</v>
+        <v>28945.1676</v>
       </c>
       <c r="I5" s="1">
-        <v>307.6544</v>
+        <v>307.0394</v>
       </c>
       <c r="J5" s="1">
-        <v>29376.8408</v>
+        <v>29252.207</v>
       </c>
       <c r="K5" s="1">
         <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>14.5775</v>
+        <v>14.6107</v>
       </c>
       <c r="M5" s="1">
         <v>0</v>
@@ -3952,10 +3952,10 @@
         <v>10000</v>
       </c>
       <c r="P5" s="1">
-        <v>-10307.6544</v>
+        <v>-10307.0394</v>
       </c>
       <c r="Q5" s="3">
-        <v>0.0291</v>
+        <v>0.0276</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -3966,34 +3966,34 @@
         <v>14.1934</v>
       </c>
       <c r="C6" s="1">
-        <v>14.1934</v>
+        <v>14.165</v>
       </c>
       <c r="D6" s="1">
-        <v>14.1934</v>
+        <v>14.2218</v>
       </c>
       <c r="E6" s="1">
-        <v>2787.7015</v>
+        <v>2781.5182</v>
       </c>
       <c r="F6" s="1">
-        <v>704.5528</v>
+        <v>703.1459</v>
       </c>
       <c r="G6" s="1">
         <v>51522.6693</v>
       </c>
       <c r="H6" s="1">
-        <v>39566.962</v>
+        <v>39400.2051</v>
       </c>
       <c r="I6" s="1">
         <v>0</v>
       </c>
       <c r="J6" s="1">
-        <v>39566.962</v>
+        <v>39400.2051</v>
       </c>
       <c r="K6" s="1">
-        <v>40307.6544</v>
+        <v>40307.0394</v>
       </c>
       <c r="L6" s="1">
-        <v>14.4591</v>
+        <v>14.491</v>
       </c>
       <c r="M6" s="1">
         <v>0</v>
@@ -4008,7 +4008,7 @@
         <v>-10000</v>
       </c>
       <c r="Q6" s="3">
-        <v>0.0048</v>
+        <v>0.0038</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -4019,49 +4019,49 @@
         <v>14.1176</v>
       </c>
       <c r="C7" s="1">
-        <v>14.1176</v>
+        <v>14.0894</v>
       </c>
       <c r="D7" s="1">
-        <v>14.1176</v>
+        <v>14.1459</v>
       </c>
       <c r="E7" s="1">
-        <v>3492.2543</v>
+        <v>3484.6641</v>
       </c>
       <c r="F7" s="1">
-        <v>708.3357</v>
+        <v>706.9186</v>
       </c>
       <c r="G7" s="1">
         <v>62295.5093</v>
       </c>
       <c r="H7" s="1">
-        <v>49302.2491</v>
+        <v>49096.8258</v>
       </c>
       <c r="I7" s="1">
         <v>0</v>
       </c>
       <c r="J7" s="1">
-        <v>49302.2491</v>
+        <v>49096.8258</v>
       </c>
       <c r="K7" s="1">
-        <v>50307.6544</v>
+        <v>50307.0394</v>
       </c>
       <c r="L7" s="1">
-        <v>14.4055</v>
+        <v>14.4367</v>
       </c>
       <c r="M7" s="1">
         <v>0.5</v>
       </c>
       <c r="N7" s="1">
-        <v>1254.4657</v>
+        <v>1251.6832</v>
       </c>
       <c r="O7" s="1">
         <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>-8745.534299999999</v>
+        <v>-8748.316800000001</v>
       </c>
       <c r="Q7" s="3">
-        <v>-0.0053</v>
+        <v>-0.0061</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -4072,34 +4072,34 @@
         <v>15.3311</v>
       </c>
       <c r="C8" s="1">
-        <v>15.3311</v>
+        <v>15.3004</v>
       </c>
       <c r="D8" s="1">
-        <v>15.3311</v>
+        <v>15.3618</v>
       </c>
       <c r="E8" s="1">
-        <v>4200.59</v>
+        <v>4191.5827</v>
       </c>
       <c r="F8" s="1">
-        <v>575.9715</v>
+        <v>594.5629</v>
       </c>
       <c r="G8" s="1">
         <v>73229.94190000001</v>
       </c>
       <c r="H8" s="1">
-        <v>64399.6651</v>
+        <v>64132.8915</v>
       </c>
       <c r="I8" s="1">
-        <v>1254.4657</v>
+        <v>1251.6832</v>
       </c>
       <c r="J8" s="1">
-        <v>65654.1308</v>
+        <v>65384.5747</v>
       </c>
       <c r="K8" s="1">
-        <v>60307.6544</v>
+        <v>60307.0394</v>
       </c>
       <c r="L8" s="1">
-        <v>14.3569</v>
+        <v>14.3877</v>
       </c>
       <c r="M8" s="1">
         <v>0</v>
@@ -4111,10 +4111,10 @@
         <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>-8830.2768</v>
+        <v>-9133.5566</v>
       </c>
       <c r="Q8" s="3">
-        <v>0.1071</v>
+        <v>0.1064</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -4125,34 +4125,34 @@
         <v>15.3637</v>
       </c>
       <c r="C9" s="1">
-        <v>15.3637</v>
+        <v>15.333</v>
       </c>
       <c r="D9" s="1">
-        <v>15.3637</v>
+        <v>15.3945</v>
       </c>
       <c r="E9" s="1">
-        <v>4776.5615</v>
+        <v>4786.1456</v>
       </c>
       <c r="F9" s="1">
-        <v>712.246</v>
+        <v>713.6517</v>
       </c>
       <c r="G9" s="1">
         <v>84328.39109999999</v>
       </c>
       <c r="H9" s="1">
-        <v>73385.6578</v>
+        <v>73385.9703</v>
       </c>
       <c r="I9" s="1">
-        <v>2424.1888</v>
+        <v>2118.1266</v>
       </c>
       <c r="J9" s="1">
-        <v>75809.84669999999</v>
+        <v>75504.0968</v>
       </c>
       <c r="K9" s="1">
-        <v>69137.9313</v>
+        <v>69440.59600000001</v>
       </c>
       <c r="L9" s="1">
-        <v>14.4744</v>
+        <v>14.5087</v>
       </c>
       <c r="M9" s="1">
         <v>0</v>
@@ -4164,10 +4164,10 @@
         <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>-10942.7332</v>
+        <v>-10986.3104</v>
       </c>
       <c r="Q9" s="3">
-        <v>0.0021</v>
+        <v>0.0016</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -4178,49 +4178,49 @@
         <v>14.6447</v>
       </c>
       <c r="C10" s="1">
-        <v>14.6447</v>
+        <v>14.6154</v>
       </c>
       <c r="D10" s="1">
-        <v>14.6447</v>
+        <v>14.674</v>
       </c>
       <c r="E10" s="1">
-        <v>5488.8075</v>
+        <v>5499.7972</v>
       </c>
       <c r="F10" s="1">
-        <v>784.0007000000001</v>
+        <v>758.6082</v>
       </c>
       <c r="G10" s="1">
         <v>95593.31690000001</v>
       </c>
       <c r="H10" s="1">
-        <v>80381.9385</v>
+        <v>80381.7366</v>
       </c>
       <c r="I10" s="1">
-        <v>1481.4556</v>
+        <v>1131.8162</v>
       </c>
       <c r="J10" s="1">
-        <v>81863.3941</v>
+        <v>81513.5528</v>
       </c>
       <c r="K10" s="1">
-        <v>80080.6645</v>
+        <v>80426.90640000001</v>
       </c>
       <c r="L10" s="1">
-        <v>14.5898</v>
+        <v>14.6236</v>
       </c>
       <c r="M10" s="1">
         <v>1</v>
       </c>
       <c r="N10" s="1">
-        <v>4298.9053</v>
+        <v>4307.531</v>
       </c>
       <c r="O10" s="1">
         <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>-7182.5502</v>
+        <v>-6824.2852</v>
       </c>
       <c r="Q10" s="3">
-        <v>-0.046</v>
+        <v>-0.0467</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -4231,34 +4231,34 @@
         <v>15.486</v>
       </c>
       <c r="C11" s="1">
-        <v>15.486</v>
+        <v>15.455</v>
       </c>
       <c r="D11" s="1">
-        <v>15.486</v>
+        <v>15.517</v>
       </c>
       <c r="E11" s="1">
-        <v>6272.8082</v>
+        <v>6258.4054</v>
       </c>
       <c r="F11" s="1">
-        <v>638.4159</v>
+        <v>666.6814000000001</v>
       </c>
       <c r="G11" s="1">
         <v>107027.2167</v>
       </c>
       <c r="H11" s="1">
-        <v>97140.70759999999</v>
+        <v>96723.65549999999</v>
       </c>
       <c r="I11" s="1">
-        <v>4298.9053</v>
+        <v>4307.531</v>
       </c>
       <c r="J11" s="1">
-        <v>101439.613</v>
+        <v>101031.1865</v>
       </c>
       <c r="K11" s="1">
-        <v>91562.1201</v>
+        <v>91558.72259999999</v>
       </c>
       <c r="L11" s="1">
-        <v>14.5967</v>
+        <v>14.6297</v>
       </c>
       <c r="M11" s="1">
         <v>0</v>
@@ -4270,10 +4270,10 @@
         <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>-9886.509099999999</v>
+        <v>-10344.8954</v>
       </c>
       <c r="Q11" s="3">
-        <v>0.1042</v>
+        <v>0.104</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -4284,34 +4284,34 @@
         <v>16.1958</v>
       </c>
       <c r="C12" s="1">
-        <v>16.1957</v>
+        <v>16.1634</v>
       </c>
       <c r="D12" s="1">
-        <v>16.1958</v>
+        <v>16.2282</v>
       </c>
       <c r="E12" s="1">
-        <v>6911.2241</v>
+        <v>6925.0868</v>
       </c>
       <c r="F12" s="1">
-        <v>413.7217</v>
+        <v>414.4967</v>
       </c>
       <c r="G12" s="1">
         <v>118632.6249</v>
       </c>
       <c r="H12" s="1">
-        <v>111932.1124</v>
+        <v>111932.9482</v>
       </c>
       <c r="I12" s="1">
-        <v>4412.3963</v>
+        <v>3962.6356</v>
       </c>
       <c r="J12" s="1">
-        <v>116344.5087</v>
+        <v>115895.5838</v>
       </c>
       <c r="K12" s="1">
-        <v>101448.6292</v>
+        <v>101903.618</v>
       </c>
       <c r="L12" s="1">
-        <v>14.6788</v>
+        <v>14.7151</v>
       </c>
       <c r="M12" s="1">
         <v>0</v>
@@ -4323,10 +4323,10 @@
         <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>-6700.5539</v>
+        <v>-6726.5361</v>
       </c>
       <c r="Q12" s="3">
-        <v>0.044</v>
+        <v>0.0438</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -4337,49 +4337,49 @@
         <v>16.4264</v>
       </c>
       <c r="C13" s="1">
-        <v>16.4264</v>
+        <v>16.3936</v>
       </c>
       <c r="D13" s="1">
-        <v>16.4264</v>
+        <v>16.4593</v>
       </c>
       <c r="E13" s="1">
-        <v>7324.9458</v>
+        <v>7339.5836</v>
       </c>
       <c r="F13" s="1">
-        <v>614.2322</v>
+        <v>615.479</v>
       </c>
       <c r="G13" s="1">
         <v>130412.1143</v>
       </c>
       <c r="H13" s="1">
-        <v>120322.4899</v>
+        <v>120322.1971</v>
       </c>
       <c r="I13" s="1">
-        <v>7711.8424</v>
+        <v>7236.0995</v>
       </c>
       <c r="J13" s="1">
-        <v>128034.3324</v>
+        <v>127558.2965</v>
       </c>
       <c r="K13" s="1">
-        <v>108149.183</v>
+        <v>108630.1541</v>
       </c>
       <c r="L13" s="1">
-        <v>14.7645</v>
+        <v>14.8006</v>
       </c>
       <c r="M13" s="1">
         <v>0.75</v>
       </c>
       <c r="N13" s="1">
-        <v>4665.0763</v>
+        <v>4674.4336</v>
       </c>
       <c r="O13" s="1">
         <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>-5424.5481</v>
+        <v>-5455.9206</v>
       </c>
       <c r="Q13" s="3">
-        <v>0.0134</v>
+        <v>0.0132</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -4390,34 +4390,34 @@
         <v>17.107</v>
       </c>
       <c r="C14" s="1">
-        <v>17.107</v>
+        <v>17.0728</v>
       </c>
       <c r="D14" s="1">
-        <v>17.107</v>
+        <v>17.1413</v>
       </c>
       <c r="E14" s="1">
-        <v>7939.178</v>
+        <v>7955.0626</v>
       </c>
       <c r="F14" s="1">
-        <v>-7939.178</v>
+        <v>-7955.0626</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>135815.5189</v>
+        <v>135815.1928</v>
       </c>
       <c r="I14" s="1">
-        <v>12287.2943</v>
+        <v>11780.1788</v>
       </c>
       <c r="J14" s="1">
-        <v>148102.8132</v>
+        <v>147595.3717</v>
       </c>
       <c r="K14" s="1">
-        <v>118238.8074</v>
+        <v>118760.5083</v>
       </c>
       <c r="L14" s="1">
-        <v>14.8931</v>
+        <v>14.9289</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
@@ -4429,10 +4429,10 @@
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>135815.5189</v>
+        <v>135815.1928</v>
       </c>
       <c r="Q14" s="3">
-        <v>0.07290000000000001</v>
+        <v>0.073</v>
       </c>
     </row>
   </sheetData>
@@ -4490,19 +4490,19 @@
         <v>24</v>
       </c>
       <c r="C3" s="1">
-        <v>14.9775</v>
+        <v>15.0074</v>
       </c>
       <c r="D3" s="1">
-        <v>14.8066</v>
+        <v>14.8397</v>
       </c>
       <c r="E3" s="1">
-        <v>14.8268</v>
+        <v>14.8614</v>
       </c>
       <c r="F3" s="1">
-        <v>14.8596</v>
+        <v>14.8956</v>
       </c>
       <c r="G3" s="1">
-        <v>14.8931</v>
+        <v>14.9289</v>
       </c>
     </row>
     <row r="4" spans="1:7" s="3" customFormat="1">
@@ -4513,19 +4513,19 @@
         <v>0.1713</v>
       </c>
       <c r="C4" s="3">
-        <v>0.2829</v>
+        <v>0.2704</v>
       </c>
       <c r="D4" s="3">
-        <v>0.2719</v>
+        <v>0.2604</v>
       </c>
       <c r="E4" s="3">
-        <v>0.2756</v>
+        <v>0.2639</v>
       </c>
       <c r="F4" s="3">
-        <v>0.2784</v>
+        <v>0.2665</v>
       </c>
       <c r="G4" s="3">
-        <v>0.2812</v>
+        <v>0.2692</v>
       </c>
     </row>
     <row r="5" spans="1:7" s="3" customFormat="1">
@@ -4536,19 +4536,19 @@
         <v>0.1638</v>
       </c>
       <c r="C5" s="3">
-        <v>0.1963</v>
+        <v>0.1967</v>
       </c>
       <c r="D5" s="3">
-        <v>0.1904</v>
+        <v>0.1911</v>
       </c>
       <c r="E5" s="3">
-        <v>0.192</v>
+        <v>0.1928</v>
       </c>
       <c r="F5" s="3">
-        <v>0.1933</v>
+        <v>0.194</v>
       </c>
       <c r="G5" s="3">
-        <v>0.1946</v>
+        <v>0.1954</v>
       </c>
     </row>
     <row r="6" spans="1:7" s="4" customFormat="1">
@@ -4559,19 +4559,19 @@
         <v>0.9217</v>
       </c>
       <c r="C6" s="4">
-        <v>1.3374</v>
+        <v>1.2717</v>
       </c>
       <c r="D6" s="4">
-        <v>1.3213</v>
+        <v>1.256</v>
       </c>
       <c r="E6" s="4">
-        <v>1.3294</v>
+        <v>1.2634</v>
       </c>
       <c r="F6" s="4">
-        <v>1.3353</v>
+        <v>1.2686</v>
       </c>
       <c r="G6" s="4">
-        <v>1.341</v>
+        <v>1.2739</v>
       </c>
     </row>
     <row r="7" spans="1:7" s="3" customFormat="1">
@@ -4579,19 +4579,19 @@
         <v>28</v>
       </c>
       <c r="C7" s="3">
-        <v>0.4781</v>
+        <v>0.4675</v>
       </c>
       <c r="D7" s="3">
-        <v>0.4787</v>
+        <v>0.4688</v>
       </c>
       <c r="E7" s="3">
-        <v>0.4796</v>
+        <v>0.4695</v>
       </c>
       <c r="F7" s="3">
-        <v>0.4797</v>
+        <v>0.4694</v>
       </c>
       <c r="G7" s="3">
-        <v>0.4797</v>
+        <v>0.4693</v>
       </c>
     </row>
     <row r="8" spans="1:7" s="1" customFormat="1">
@@ -4599,19 +4599,19 @@
         <v>29</v>
       </c>
       <c r="C8" s="1">
-        <v>10625.4488</v>
+        <v>10603.9394</v>
       </c>
       <c r="D8" s="1">
-        <v>10030.6627</v>
+        <v>10044.2543</v>
       </c>
       <c r="E8" s="1">
-        <v>10192.0524</v>
+        <v>10205.9677</v>
       </c>
       <c r="F8" s="1">
-        <v>10357.1697</v>
+        <v>10371.4163</v>
       </c>
       <c r="G8" s="1">
-        <v>10526.1017</v>
+        <v>10540.6872</v>
       </c>
     </row>
   </sheetData>

--- a/output/1Y_P37_KFSDIV.xlsx
+++ b/output/1Y_P37_KFSDIV.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="31">
   <si>
     <t>NAV</t>
   </si>
@@ -110,6 +110,9 @@
   </si>
   <si>
     <t>Dividend</t>
+  </si>
+  <si>
+    <t>Wealth/Cost</t>
   </si>
 </sst>
 </file>
@@ -721,7 +724,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>14.6268</v>
@@ -765,7 +768,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>15.3636</v>
@@ -815,7 +818,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>13.8711</v>
@@ -865,7 +868,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>14.1252</v>
@@ -915,7 +918,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>14.1934</v>
@@ -965,7 +968,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>14.1176</v>
@@ -1015,7 +1018,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>15.3311</v>
@@ -1065,7 +1068,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>15.3637</v>
@@ -1115,7 +1118,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>14.6447</v>
@@ -1165,7 +1168,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>15.486</v>
@@ -1215,7 +1218,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>16.1958</v>
@@ -1265,7 +1268,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>16.4264</v>
@@ -1315,7 +1318,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>17.107</v>
@@ -1450,7 +1453,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>14.6268</v>
@@ -1497,7 +1500,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>15.3636</v>
@@ -1550,7 +1553,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>13.8711</v>
@@ -1603,7 +1606,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>14.1252</v>
@@ -1656,7 +1659,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>14.1934</v>
@@ -1709,7 +1712,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>14.1176</v>
@@ -1762,7 +1765,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>15.3311</v>
@@ -1815,7 +1818,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>15.3637</v>
@@ -1868,7 +1871,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>14.6447</v>
@@ -1921,7 +1924,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>15.486</v>
@@ -1974,7 +1977,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>16.1958</v>
@@ -2027,7 +2030,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>16.4264</v>
@@ -2080,7 +2083,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>17.107</v>
@@ -2218,7 +2221,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>14.6268</v>
@@ -2265,7 +2268,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>15.3636</v>
@@ -2318,7 +2321,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>13.8711</v>
@@ -2371,7 +2374,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>14.1252</v>
@@ -2424,7 +2427,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>14.1934</v>
@@ -2477,7 +2480,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>14.1176</v>
@@ -2530,7 +2533,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>15.3311</v>
@@ -2583,7 +2586,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>15.3637</v>
@@ -2636,7 +2639,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>14.6447</v>
@@ -2689,7 +2692,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>15.486</v>
@@ -2742,7 +2745,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>16.1958</v>
@@ -2795,7 +2798,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>16.4264</v>
@@ -2848,7 +2851,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>17.107</v>
@@ -2986,7 +2989,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>14.6268</v>
@@ -3033,7 +3036,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>15.3636</v>
@@ -3086,7 +3089,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>13.8711</v>
@@ -3139,7 +3142,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>14.1252</v>
@@ -3192,7 +3195,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>14.1934</v>
@@ -3245,7 +3248,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>14.1176</v>
@@ -3298,7 +3301,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>15.3311</v>
@@ -3351,7 +3354,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>15.3637</v>
@@ -3404,7 +3407,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>14.6447</v>
@@ -3457,7 +3460,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>15.486</v>
@@ -3510,7 +3513,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>16.1958</v>
@@ -3563,7 +3566,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>16.4264</v>
@@ -3616,7 +3619,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>17.107</v>
@@ -3754,7 +3757,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>14.6268</v>
@@ -3801,7 +3804,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>15.3636</v>
@@ -3854,7 +3857,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>13.8711</v>
@@ -3907,7 +3910,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>14.1252</v>
@@ -3960,7 +3963,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>14.1934</v>
@@ -4013,7 +4016,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>14.1176</v>
@@ -4066,7 +4069,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>15.3311</v>
@@ -4119,7 +4122,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>15.3637</v>
@@ -4172,7 +4175,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>14.6447</v>
@@ -4225,7 +4228,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>15.486</v>
@@ -4278,7 +4281,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>16.1958</v>
@@ -4331,7 +4334,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>16.4264</v>
@@ -4384,7 +4387,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>17.107</v>
@@ -4442,13 +4445,13 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" customWidth="1"/>
+    <col min="1" max="1" width="12.7109375" customWidth="1"/>
     <col min="2" max="2" width="7.7109375" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" customWidth="1"/>
     <col min="4" max="4" width="11.7109375" customWidth="1"/>
@@ -4614,6 +4617,26 @@
         <v>12072.5509</v>
       </c>
     </row>
+    <row r="9" spans="1:7" s="4" customFormat="1">
+      <c r="A9" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="4">
+        <v>1.1782</v>
+      </c>
+      <c r="D9" s="4">
+        <v>1.3612</v>
+      </c>
+      <c r="E9" s="4">
+        <v>1.3269</v>
+      </c>
+      <c r="F9" s="4">
+        <v>1.2916</v>
+      </c>
+      <c r="G9" s="4">
+        <v>1.2569</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
